--- a/database/core.xlsx
+++ b/database/core.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khailv/Desktop/skycore-grpc/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khailv/Desktop/Suntech/working/skyhubv3/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AF4F4F-942A-2447-9287-C078595FF721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCB254F-0EDF-DE4F-8BEA-C0574288F58F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -36,6 +36,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="365">
   <si>
     <t>Tên bảng</t>
   </si>
@@ -1250,6 +1251,9 @@
   </si>
   <si>
     <t>option go_package = ".;pt";</t>
+  </si>
+  <si>
+    <t>package models</t>
   </si>
 </sst>
 </file>
@@ -5233,6 +5237,140 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Post-Java"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>varchar</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>string</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>bigint</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>int64</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>smallint</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>int32</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>integer</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>int32</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>text</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>string</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>varchar(10)</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>string</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>varchar(20)</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>string</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>varchar(50)</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>string</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>varchar(255)</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>string</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>varchar(1024)</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>string</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>boolean</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>bool</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13"/>
+          <cell r="B13"/>
+        </row>
+        <row r="14">
+          <cell r="A14"/>
+          <cell r="B14"/>
+        </row>
+        <row r="15">
+          <cell r="A15"/>
+          <cell r="B15"/>
+        </row>
+        <row r="16">
+          <cell r="A16"/>
+          <cell r="B16"/>
+        </row>
+        <row r="17">
+          <cell r="A17"/>
+          <cell r="B17"/>
+        </row>
+        <row r="18">
+          <cell r="A18"/>
+          <cell r="B18"/>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>bytea</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>byte[]</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5547,8 +5685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L7"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8226,8 +8364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L7"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8270,9 +8408,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M5"/>
-      <c r="Q5" s="16" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -8305,8 +8441,8 @@
       <c r="K7" s="2"/>
       <c r="L7"/>
       <c r="M7"/>
-      <c r="Q7" s="17" t="s">
-        <v>44</v>
+      <c r="Q7" t="s">
+        <v>364</v>
       </c>
       <c r="R7" s="17"/>
     </row>
@@ -8335,7 +8471,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="Q8"/>
+      <c r="Q8" s="2"/>
       <c r="R8"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -8358,9 +8494,9 @@
         <v>message MenuOrg {</v>
       </c>
       <c r="M9" s="2"/>
-      <c r="Q9" s="17" t="str">
-        <f>"class " &amp;  PROPER(LEFT($C$8)) &amp; MID(SUBSTITUTE(PROPER($C$8),"_",""),2,LEN($C$8))  &amp; " extends Model {"</f>
-        <v>class MenuOrg extends Model {</v>
+      <c r="Q9" s="2" t="str">
+        <f>"type " &amp; PROPER(LEFT($C$8)) &amp; MID(SUBSTITUTE(PROPER($C$8),"_",""),2,LEN($C$8)) &amp; " struct {"</f>
+        <v>type MenuOrg struct {</v>
       </c>
       <c r="R9" s="17"/>
     </row>
@@ -8394,10 +8530,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="Q10" s="17" t="str">
-        <f>"  " &amp; "static get tableName() {"</f>
-        <v xml:space="preserve">  static get tableName() {</v>
-      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" s="17"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -8432,9 +8565,9 @@
         <v xml:space="preserve">    int64 id = 1 [jstype=JS_STRING];</v>
       </c>
       <c r="M11" s="2"/>
-      <c r="Q11" s="18" t="str">
-        <f>"    return '" &amp; $C$8 &amp; "';"</f>
-        <v xml:space="preserve">    return 'menu_org';</v>
+      <c r="Q11" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C11))&amp;MID(SUBSTITUTE(PROPER($C11),"_",""),2,LEN($C11))&amp;" "&amp;IF($C11="id","","*")&amp;VLOOKUP($D11,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C11))&amp;MID(SUBSTITUTE(PROPER($C11),"_",""),2,LEN($C11))&amp;""""&amp;IF($C11="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    Id int64 `json:"id"`</v>
       </c>
       <c r="R11" s="18"/>
     </row>
@@ -8466,9 +8599,9 @@
         <v xml:space="preserve">    int64 menu_id = 2 [jstype=JS_STRING];</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="Q12" s="19" t="str">
-        <f>"  }"</f>
-        <v xml:space="preserve">  }</v>
+      <c r="Q12" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;" "&amp;IF($C12="id","","*")&amp;VLOOKUP($D12,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;""""&amp;IF($C12="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    MenuId *int64 `json:"menuId" orm:"null"`</v>
       </c>
       <c r="R12" s="19"/>
     </row>
@@ -8500,8 +8633,9 @@
         <v xml:space="preserve">    int64 dep_id = 3 [jstype=JS_STRING];</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="Q13" s="19" t="s">
-        <v>42</v>
+      <c r="Q13" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;" "&amp;IF($C13="id","","*")&amp;VLOOKUP($D13,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;""""&amp;IF($C13="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    DepId *int64 `json:"depId" orm:"null"`</v>
       </c>
       <c r="R13" s="19"/>
     </row>
@@ -8535,7 +8669,10 @@
         <v xml:space="preserve">    int32 sort = 4 ;</v>
       </c>
       <c r="M14" s="2"/>
-      <c r="Q14" s="19"/>
+      <c r="Q14" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;" "&amp;IF($C14="id","","*")&amp;VLOOKUP($D14,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;""""&amp;IF($C14="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    Sort *int32 `json:"sort" orm:"null"`</v>
+      </c>
       <c r="R14" s="19"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -8570,7 +8707,10 @@
         <v xml:space="preserve">    bool disabled = 5 ;</v>
       </c>
       <c r="M15" s="2"/>
-      <c r="Q15" s="20"/>
+      <c r="Q15" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;" "&amp;IF($C15="id","","*")&amp;VLOOKUP($D15,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;""""&amp;IF($C15="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    Disabled *bool `json:"disabled" orm:"null"`</v>
+      </c>
       <c r="R15" s="20"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -8601,8 +8741,12 @@
         <v xml:space="preserve">    int64 created_by = 6 ;</v>
       </c>
       <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q16" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C16))&amp;MID(SUBSTITUTE(PROPER($C16),"_",""),2,LEN($C16))&amp;" "&amp;IF($C16="id","","*")&amp;VLOOKUP($D16,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C16))&amp;MID(SUBSTITUTE(PROPER($C16),"_",""),2,LEN($C16))&amp;""""&amp;IF($C16="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    CreatedBy *int64 `json:"createdBy" orm:"null"`</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>7</v>
       </c>
@@ -8632,8 +8776,12 @@
         <v xml:space="preserve">    int64 created_at = 7 ;</v>
       </c>
       <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q17" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C17))&amp;MID(SUBSTITUTE(PROPER($C17),"_",""),2,LEN($C17))&amp;" "&amp;IF($C17="id","","*")&amp;VLOOKUP($D17,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C17))&amp;MID(SUBSTITUTE(PROPER($C17),"_",""),2,LEN($C17))&amp;""""&amp;IF($C17="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    CreatedAt *int64 `json:"createdAt" orm:"null"`</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>8</v>
       </c>
@@ -8661,8 +8809,12 @@
         <v xml:space="preserve">    int64 updated_by = 8 ;</v>
       </c>
       <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q18" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C18))&amp;MID(SUBSTITUTE(PROPER($C18),"_",""),2,LEN($C18))&amp;" "&amp;IF($C18="id","","*")&amp;VLOOKUP($D18,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C18))&amp;MID(SUBSTITUTE(PROPER($C18),"_",""),2,LEN($C18))&amp;""""&amp;IF($C18="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    UpdatedBy *int64 `json:"updatedBy" orm:"null"`</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>9</v>
       </c>
@@ -8692,8 +8844,12 @@
         <v xml:space="preserve">    int64 updated_at = 9 ;</v>
       </c>
       <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q19" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C19))&amp;MID(SUBSTITUTE(PROPER($C19),"_",""),2,LEN($C19))&amp;" "&amp;IF($C19="id","","*")&amp;VLOOKUP($D19,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C19))&amp;MID(SUBSTITUTE(PROPER($C19),"_",""),2,LEN($C19))&amp;""""&amp;IF($C19="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    UpdatedAt *int64 `json:"updatedAt" orm:"null"`</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>10</v>
       </c>
@@ -8721,8 +8877,12 @@
         <v xml:space="preserve">    int64 deleted_by = 10 ;</v>
       </c>
       <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q20" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C20))&amp;MID(SUBSTITUTE(PROPER($C20),"_",""),2,LEN($C20))&amp;" "&amp;IF($C20="id","","*")&amp;VLOOKUP($D20,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C20))&amp;MID(SUBSTITUTE(PROPER($C20),"_",""),2,LEN($C20))&amp;""""&amp;IF($C20="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    DeletedBy *int64 `json:"deletedBy" orm:"null"`</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>11</v>
       </c>
@@ -8750,8 +8910,12 @@
         <v xml:space="preserve">    int64 deleted_at = 11 ;</v>
       </c>
       <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q21" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C21))&amp;MID(SUBSTITUTE(PROPER($C21),"_",""),2,LEN($C21))&amp;" "&amp;IF($C21="id","","*")&amp;VLOOKUP($D21,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C21))&amp;MID(SUBSTITUTE(PROPER($C21),"_",""),2,LEN($C21))&amp;""""&amp;IF($C21="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    DeletedAt *int64 `json:"deletedAt" orm:"null"`</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>12</v>
       </c>
@@ -8781,8 +8945,12 @@
         <v xml:space="preserve">    int32 version = 12 ;</v>
       </c>
       <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q22" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C22))&amp;MID(SUBSTITUTE(PROPER($C22),"_",""),2,LEN($C22))&amp;" "&amp;IF($C22="id","","*")&amp;VLOOKUP($D22,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C22))&amp;MID(SUBSTITUTE(PROPER($C22),"_",""),2,LEN($C22))&amp;""""&amp;IF($C22="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    Version *int32 `json:"version" orm:"null"`</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8799,8 +8967,9 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A24" s="31" t="s">
         <v>32</v>
       </c>
@@ -8818,8 +8987,9 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>23</v>
       </c>
@@ -8843,8 +9013,9 @@
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>1</v>
       </c>
@@ -8868,8 +9039,9 @@
         <v>42</v>
       </c>
       <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>2</v>
       </c>
@@ -8888,7 +9060,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>3</v>
       </c>
@@ -8904,8 +9076,11 @@
 ADD COLUMN  ;</v>
       </c>
       <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>4</v>
       </c>
@@ -8922,16 +9097,16 @@
       </c>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="H31" s="3" t="s">
         <v>261</v>
       </c>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="H32" s="3" t="s">
         <v>262</v>
       </c>
@@ -9104,7 +9279,7 @@
   <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L7"/>
+      <selection activeCell="Q7" sqref="Q7:Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9147,9 +9322,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M5"/>
-      <c r="Q5" s="16" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -9182,8 +9355,8 @@
       <c r="K7" s="2"/>
       <c r="L7"/>
       <c r="M7"/>
-      <c r="Q7" s="17" t="s">
-        <v>44</v>
+      <c r="Q7" t="s">
+        <v>364</v>
       </c>
       <c r="R7" s="17"/>
     </row>
@@ -9212,7 +9385,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="Q8"/>
+      <c r="Q8" s="2"/>
       <c r="R8"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -9235,9 +9408,9 @@
         <v>message RoleDetail {</v>
       </c>
       <c r="M9" s="2"/>
-      <c r="Q9" s="17" t="str">
-        <f>"class " &amp;  PROPER(LEFT($C$8)) &amp; MID(SUBSTITUTE(PROPER($C$8),"_",""),2,LEN($C$8))  &amp; " extends Model {"</f>
-        <v>class RoleDetail extends Model {</v>
+      <c r="Q9" s="2" t="str">
+        <f>"type " &amp; PROPER(LEFT($C$8)) &amp; MID(SUBSTITUTE(PROPER($C$8),"_",""),2,LEN($C$8)) &amp; " struct {"</f>
+        <v>type RoleDetail struct {</v>
       </c>
       <c r="R9" s="17"/>
     </row>
@@ -9271,10 +9444,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="Q10" s="17" t="str">
-        <f>"  " &amp; "static get tableName() {"</f>
-        <v xml:space="preserve">  static get tableName() {</v>
-      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" s="17"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -9309,9 +9479,9 @@
         <v xml:space="preserve">    int64 id = 1 [jstype=JS_STRING];</v>
       </c>
       <c r="M11" s="2"/>
-      <c r="Q11" s="18" t="str">
-        <f>"    return '" &amp; $C$8 &amp; "';"</f>
-        <v xml:space="preserve">    return 'role_detail';</v>
+      <c r="Q11" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C11))&amp;MID(SUBSTITUTE(PROPER($C11),"_",""),2,LEN($C11))&amp;" "&amp;IF($C11="id","","*")&amp;VLOOKUP($D11,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C11))&amp;MID(SUBSTITUTE(PROPER($C11),"_",""),2,LEN($C11))&amp;""""&amp;IF($C11="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    Id int64 `json:"id"`</v>
       </c>
       <c r="R11" s="18"/>
     </row>
@@ -9343,9 +9513,9 @@
         <v xml:space="preserve">    int64 role_id = 2 [jstype=JS_STRING];</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="Q12" s="19" t="str">
-        <f>"  }"</f>
-        <v xml:space="preserve">  }</v>
+      <c r="Q12" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;" "&amp;IF($C12="id","","*")&amp;VLOOKUP($D12,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;""""&amp;IF($C12="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    RoleId *int64 `json:"roleId" orm:"null"`</v>
       </c>
       <c r="R12" s="19"/>
     </row>
@@ -9377,8 +9547,9 @@
         <v xml:space="preserve">    int64 menu_org_id = 3 [jstype=JS_STRING];</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="Q13" s="19" t="s">
-        <v>42</v>
+      <c r="Q13" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;" "&amp;IF($C13="id","","*")&amp;VLOOKUP($D13,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;""""&amp;IF($C13="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    MenuOrgId *int64 `json:"menuOrgId" orm:"null"`</v>
       </c>
       <c r="R13" s="19"/>
     </row>
@@ -9412,7 +9583,10 @@
         <v xml:space="preserve">    bool is_private = 4 ;</v>
       </c>
       <c r="M14" s="2"/>
-      <c r="Q14" s="19"/>
+      <c r="Q14" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;" "&amp;IF($C14="id","","*")&amp;VLOOKUP($D14,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;""""&amp;IF($C14="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    IsPrivate *bool `json:"isPrivate" orm:"null"`</v>
+      </c>
       <c r="R14" s="19"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -9445,7 +9619,10 @@
         <v xml:space="preserve">    int32 data_level = 5 ;</v>
       </c>
       <c r="M15" s="2"/>
-      <c r="Q15" s="19"/>
+      <c r="Q15" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;" "&amp;IF($C15="id","","*")&amp;VLOOKUP($D15,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;""""&amp;IF($C15="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    DataLevel *int32 `json:"dataLevel" orm:"null"`</v>
+      </c>
       <c r="R15" s="19"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -9478,7 +9655,10 @@
         <v xml:space="preserve">    bool approve = 6 ;</v>
       </c>
       <c r="M16" s="2"/>
-      <c r="Q16" s="19"/>
+      <c r="Q16" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C16))&amp;MID(SUBSTITUTE(PROPER($C16),"_",""),2,LEN($C16))&amp;" "&amp;IF($C16="id","","*")&amp;VLOOKUP($D16,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C16))&amp;MID(SUBSTITUTE(PROPER($C16),"_",""),2,LEN($C16))&amp;""""&amp;IF($C16="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    Approve *bool `json:"approve" orm:"null"`</v>
+      </c>
       <c r="R16" s="19"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
@@ -9513,7 +9693,10 @@
         <v xml:space="preserve">    bool disabled = 7 ;</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="Q17" s="20"/>
+      <c r="Q17" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C17))&amp;MID(SUBSTITUTE(PROPER($C17),"_",""),2,LEN($C17))&amp;" "&amp;IF($C17="id","","*")&amp;VLOOKUP($D17,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C17))&amp;MID(SUBSTITUTE(PROPER($C17),"_",""),2,LEN($C17))&amp;""""&amp;IF($C17="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    Disabled *bool `json:"disabled" orm:"null"`</v>
+      </c>
       <c r="R17" s="20"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -9544,6 +9727,10 @@
         <v xml:space="preserve">    int64 created_by = 8 ;</v>
       </c>
       <c r="M18" s="2"/>
+      <c r="Q18" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C18))&amp;MID(SUBSTITUTE(PROPER($C18),"_",""),2,LEN($C18))&amp;" "&amp;IF($C18="id","","*")&amp;VLOOKUP($D18,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C18))&amp;MID(SUBSTITUTE(PROPER($C18),"_",""),2,LEN($C18))&amp;""""&amp;IF($C18="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    CreatedBy *int64 `json:"createdBy" orm:"null"`</v>
+      </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
@@ -9575,6 +9762,10 @@
         <v xml:space="preserve">    int64 created_at = 9 ;</v>
       </c>
       <c r="M19" s="2"/>
+      <c r="Q19" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C19))&amp;MID(SUBSTITUTE(PROPER($C19),"_",""),2,LEN($C19))&amp;" "&amp;IF($C19="id","","*")&amp;VLOOKUP($D19,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C19))&amp;MID(SUBSTITUTE(PROPER($C19),"_",""),2,LEN($C19))&amp;""""&amp;IF($C19="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    CreatedAt *int64 `json:"createdAt" orm:"null"`</v>
+      </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
@@ -9604,6 +9795,10 @@
         <v xml:space="preserve">    int64 updated_by = 10 ;</v>
       </c>
       <c r="M20" s="2"/>
+      <c r="Q20" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C20))&amp;MID(SUBSTITUTE(PROPER($C20),"_",""),2,LEN($C20))&amp;" "&amp;IF($C20="id","","*")&amp;VLOOKUP($D20,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C20))&amp;MID(SUBSTITUTE(PROPER($C20),"_",""),2,LEN($C20))&amp;""""&amp;IF($C20="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    UpdatedBy *int64 `json:"updatedBy" orm:"null"`</v>
+      </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
@@ -9635,6 +9830,10 @@
         <v xml:space="preserve">    int64 updated_at = 11 ;</v>
       </c>
       <c r="M21" s="2"/>
+      <c r="Q21" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C21))&amp;MID(SUBSTITUTE(PROPER($C21),"_",""),2,LEN($C21))&amp;" "&amp;IF($C21="id","","*")&amp;VLOOKUP($D21,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C21))&amp;MID(SUBSTITUTE(PROPER($C21),"_",""),2,LEN($C21))&amp;""""&amp;IF($C21="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    UpdatedAt *int64 `json:"updatedAt" orm:"null"`</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
@@ -9664,6 +9863,10 @@
         <v xml:space="preserve">    int64 deleted_by = 12 ;</v>
       </c>
       <c r="M22" s="2"/>
+      <c r="Q22" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C22))&amp;MID(SUBSTITUTE(PROPER($C22),"_",""),2,LEN($C22))&amp;" "&amp;IF($C22="id","","*")&amp;VLOOKUP($D22,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C22))&amp;MID(SUBSTITUTE(PROPER($C22),"_",""),2,LEN($C22))&amp;""""&amp;IF($C22="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    DeletedBy *int64 `json:"deletedBy" orm:"null"`</v>
+      </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
@@ -9693,6 +9896,7 @@
         <v xml:space="preserve">    int64 deleted_at = 13 ;</v>
       </c>
       <c r="M23" s="2"/>
+      <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
@@ -9724,6 +9928,10 @@
         <v xml:space="preserve">    int32 version = 14 ;</v>
       </c>
       <c r="M24" s="2"/>
+      <c r="Q24" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C24))&amp;MID(SUBSTITUTE(PROPER($C24),"_",""),2,LEN($C24))&amp;" "&amp;IF($C24="id","","*")&amp;VLOOKUP($D24,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C24))&amp;MID(SUBSTITUTE(PROPER($C24),"_",""),2,LEN($C24))&amp;""""&amp;IF($C24="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    Version *int32 `json:"version" orm:"null"`</v>
+      </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
@@ -9742,6 +9950,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
+      <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:18" ht="20" x14ac:dyDescent="0.2">
       <c r="A26" s="31" t="s">
@@ -9763,6 +9972,9 @@
         <v>42</v>
       </c>
       <c r="M26" s="2"/>
+      <c r="Q26" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
@@ -9788,6 +10000,7 @@
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
+      <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
@@ -9811,6 +10024,7 @@
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
+      <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
@@ -11853,7 +12067,7 @@
   <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L7"/>
+      <selection activeCell="Q7" sqref="Q7:Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11896,9 +12110,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M5"/>
-      <c r="Q5" s="16" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -11931,8 +12143,8 @@
       <c r="K7" s="2"/>
       <c r="L7"/>
       <c r="M7"/>
-      <c r="Q7" s="17" t="s">
-        <v>44</v>
+      <c r="Q7" t="s">
+        <v>364</v>
       </c>
       <c r="R7" s="17"/>
     </row>
@@ -11961,7 +12173,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="Q8"/>
+      <c r="Q8" s="2"/>
       <c r="R8"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -11984,9 +12196,9 @@
         <v>message RoleControl {</v>
       </c>
       <c r="M9" s="2"/>
-      <c r="Q9" s="17" t="str">
-        <f>"class " &amp;  PROPER(LEFT($C$8)) &amp; MID(SUBSTITUTE(PROPER($C$8),"_",""),2,LEN($C$8))  &amp; " extends Model {"</f>
-        <v>class RoleControl extends Model {</v>
+      <c r="Q9" s="2" t="str">
+        <f>"type " &amp; PROPER(LEFT($C$8)) &amp; MID(SUBSTITUTE(PROPER($C$8),"_",""),2,LEN($C$8)) &amp; " struct {"</f>
+        <v>type RoleControl struct {</v>
       </c>
       <c r="R9" s="17"/>
     </row>
@@ -12020,10 +12232,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="Q10" s="17" t="str">
-        <f>"  " &amp; "static get tableName() {"</f>
-        <v xml:space="preserve">  static get tableName() {</v>
-      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" s="17"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -12058,9 +12267,9 @@
         <v xml:space="preserve">    int64 id = 1 [jstype=JS_STRING];</v>
       </c>
       <c r="M11" s="2"/>
-      <c r="Q11" s="18" t="str">
-        <f>"    return '" &amp; $C$8 &amp; "';"</f>
-        <v xml:space="preserve">    return 'role_control';</v>
+      <c r="Q11" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C11))&amp;MID(SUBSTITUTE(PROPER($C11),"_",""),2,LEN($C11))&amp;" "&amp;IF($C11="id","","*")&amp;VLOOKUP($D11,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C11))&amp;MID(SUBSTITUTE(PROPER($C11),"_",""),2,LEN($C11))&amp;""""&amp;IF($C11="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    Id int64 `json:"id"`</v>
       </c>
       <c r="R11" s="18"/>
     </row>
@@ -12094,9 +12303,9 @@
         <v xml:space="preserve">    int64 menu_control_id = 2 [jstype=JS_STRING];</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="Q12" s="19" t="str">
-        <f>"  }"</f>
-        <v xml:space="preserve">  }</v>
+      <c r="Q12" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;" "&amp;IF($C12="id","","*")&amp;VLOOKUP($D12,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;""""&amp;IF($C12="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    MenuControlId *int64 `json:"menuControlId" orm:"null"`</v>
       </c>
       <c r="R12" s="19"/>
     </row>
@@ -12128,8 +12337,9 @@
         <v xml:space="preserve">    int64 role_detail_id = 3 [jstype=JS_STRING];</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="Q13" s="19" t="s">
-        <v>42</v>
+      <c r="Q13" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;" "&amp;IF($C13="id","","*")&amp;VLOOKUP($D13,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;""""&amp;IF($C13="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    RoleDetailId *int64 `json:"roleDetailId" orm:"null"`</v>
       </c>
       <c r="R13" s="19"/>
     </row>
@@ -12165,7 +12375,10 @@
         <v xml:space="preserve">    bool render_control = 4 ;</v>
       </c>
       <c r="M14" s="2"/>
-      <c r="Q14"/>
+      <c r="Q14" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;" "&amp;IF($C14="id","","*")&amp;VLOOKUP($D14,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;""""&amp;IF($C14="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    RenderControl *bool `json:"renderControl" orm:"null"`</v>
+      </c>
       <c r="R14"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -12200,7 +12413,10 @@
         <v xml:space="preserve">    bool disable_control = 5 ;</v>
       </c>
       <c r="M15" s="2"/>
-      <c r="Q15"/>
+      <c r="Q15" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;" "&amp;IF($C15="id","","*")&amp;VLOOKUP($D15,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;""""&amp;IF($C15="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    DisableControl *bool `json:"disableControl" orm:"null"`</v>
+      </c>
       <c r="R15"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -12235,7 +12451,10 @@
         <v xml:space="preserve">    bool confirm = 6 ;</v>
       </c>
       <c r="M16" s="2"/>
-      <c r="Q16"/>
+      <c r="Q16" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C16))&amp;MID(SUBSTITUTE(PROPER($C16),"_",""),2,LEN($C16))&amp;" "&amp;IF($C16="id","","*")&amp;VLOOKUP($D16,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C16))&amp;MID(SUBSTITUTE(PROPER($C16),"_",""),2,LEN($C16))&amp;""""&amp;IF($C16="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    Confirm *bool `json:"confirm" orm:"null"`</v>
+      </c>
       <c r="R16"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
@@ -12270,7 +12489,10 @@
         <v xml:space="preserve">    bool require_password = 7 ;</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="Q17"/>
+      <c r="Q17" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C17))&amp;MID(SUBSTITUTE(PROPER($C17),"_",""),2,LEN($C17))&amp;" "&amp;IF($C17="id","","*")&amp;VLOOKUP($D17,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C17))&amp;MID(SUBSTITUTE(PROPER($C17),"_",""),2,LEN($C17))&amp;""""&amp;IF($C17="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    RequirePassword *bool `json:"requirePassword" orm:"null"`</v>
+      </c>
       <c r="R17"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -12305,7 +12527,10 @@
         <v xml:space="preserve">    bool disabled = 8 ;</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="Q18" s="20"/>
+      <c r="Q18" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C18))&amp;MID(SUBSTITUTE(PROPER($C18),"_",""),2,LEN($C18))&amp;" "&amp;IF($C18="id","","*")&amp;VLOOKUP($D18,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C18))&amp;MID(SUBSTITUTE(PROPER($C18),"_",""),2,LEN($C18))&amp;""""&amp;IF($C18="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    Disabled *bool `json:"disabled" orm:"null"`</v>
+      </c>
       <c r="R18" s="20"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
@@ -12336,6 +12561,10 @@
         <v xml:space="preserve">    int64 created_by = 9 ;</v>
       </c>
       <c r="M19" s="2"/>
+      <c r="Q19" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C19))&amp;MID(SUBSTITUTE(PROPER($C19),"_",""),2,LEN($C19))&amp;" "&amp;IF($C19="id","","*")&amp;VLOOKUP($D19,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C19))&amp;MID(SUBSTITUTE(PROPER($C19),"_",""),2,LEN($C19))&amp;""""&amp;IF($C19="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    CreatedBy *int64 `json:"createdBy" orm:"null"`</v>
+      </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
@@ -12367,6 +12596,10 @@
         <v xml:space="preserve">    int64 created_at = 10 ;</v>
       </c>
       <c r="M20" s="2"/>
+      <c r="Q20" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C20))&amp;MID(SUBSTITUTE(PROPER($C20),"_",""),2,LEN($C20))&amp;" "&amp;IF($C20="id","","*")&amp;VLOOKUP($D20,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C20))&amp;MID(SUBSTITUTE(PROPER($C20),"_",""),2,LEN($C20))&amp;""""&amp;IF($C20="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    CreatedAt *int64 `json:"createdAt" orm:"null"`</v>
+      </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
@@ -12396,6 +12629,10 @@
         <v xml:space="preserve">    int64 updated_by = 11 ;</v>
       </c>
       <c r="M21" s="2"/>
+      <c r="Q21" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C21))&amp;MID(SUBSTITUTE(PROPER($C21),"_",""),2,LEN($C21))&amp;" "&amp;IF($C21="id","","*")&amp;VLOOKUP($D21,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C21))&amp;MID(SUBSTITUTE(PROPER($C21),"_",""),2,LEN($C21))&amp;""""&amp;IF($C21="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    UpdatedBy *int64 `json:"updatedBy" orm:"null"`</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
@@ -12427,6 +12664,10 @@
         <v xml:space="preserve">    int64 updated_at = 12 ;</v>
       </c>
       <c r="M22" s="2"/>
+      <c r="Q22" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C22))&amp;MID(SUBSTITUTE(PROPER($C22),"_",""),2,LEN($C22))&amp;" "&amp;IF($C22="id","","*")&amp;VLOOKUP($D22,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C22))&amp;MID(SUBSTITUTE(PROPER($C22),"_",""),2,LEN($C22))&amp;""""&amp;IF($C22="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    UpdatedAt *int64 `json:"updatedAt" orm:"null"`</v>
+      </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
@@ -12456,6 +12697,10 @@
         <v xml:space="preserve">    int64 deleted_by = 13 ;</v>
       </c>
       <c r="M23" s="2"/>
+      <c r="Q23" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C23))&amp;MID(SUBSTITUTE(PROPER($C23),"_",""),2,LEN($C23))&amp;" "&amp;IF($C23="id","","*")&amp;VLOOKUP($D23,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C23))&amp;MID(SUBSTITUTE(PROPER($C23),"_",""),2,LEN($C23))&amp;""""&amp;IF($C23="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    DeletedBy *int64 `json:"deletedBy" orm:"null"`</v>
+      </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
@@ -12485,6 +12730,10 @@
         <v xml:space="preserve">    int64 deleted_at = 14 ;</v>
       </c>
       <c r="M24" s="2"/>
+      <c r="Q24" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C24))&amp;MID(SUBSTITUTE(PROPER($C24),"_",""),2,LEN($C24))&amp;" "&amp;IF($C24="id","","*")&amp;VLOOKUP($D24,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C24))&amp;MID(SUBSTITUTE(PROPER($C24),"_",""),2,LEN($C24))&amp;""""&amp;IF($C24="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    DeletedAt *int64 `json:"deletedAt" orm:"null"`</v>
+      </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
@@ -12516,6 +12765,10 @@
         <v xml:space="preserve">    int32 version = 15 ;</v>
       </c>
       <c r="M25" s="2"/>
+      <c r="Q25" s="2" t="str">
+        <f>"    "&amp;UPPER(LEFT($C25))&amp;MID(SUBSTITUTE(PROPER($C25),"_",""),2,LEN($C25))&amp;" "&amp;IF($C25="id","","*")&amp;VLOOKUP($D25,'[2]Post-Java'!$A$2:$B$19,2,FALSE)&amp;" `json:"""&amp;LOWER(LEFT($C25))&amp;MID(SUBSTITUTE(PROPER($C25),"_",""),2,LEN($C25))&amp;""""&amp;IF($C25="id",""," orm:""null""")&amp;"`"</f>
+        <v xml:space="preserve">    Version *int32 `json:"version" orm:"null"`</v>
+      </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
@@ -12534,6 +12787,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
+      <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:18" ht="20" x14ac:dyDescent="0.2">
       <c r="A27" s="31" t="s">
@@ -12580,6 +12834,9 @@
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
+      <c r="Q28" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
